--- a/Data/ejemplo3.xlsx
+++ b/Data/ejemplo3.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla2" sheetId="1" r:id="rId1"/>
+    <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
